--- a/VS/With Trail 2 Years/AUDCHF.xlsx
+++ b/VS/With Trail 2 Years/AUDCHF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\VS\With Trail 2 Years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47003730-AFB4-494A-99D5-F47CB737CABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8147A5-B78A-49D6-8C68-EBC72BA79089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:M436"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="I437" sqref="I437"/>
+      <selection activeCell="A424" sqref="A424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
